--- a/excel/Model.xlsx
+++ b/excel/Model.xlsx
@@ -74,10 +74,10 @@
     <t>name</t>
   </si>
   <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>model</t>
+    <t>icon:client</t>
+  </si>
+  <si>
+    <t>model:client</t>
   </si>
   <si>
     <t>length</t>
@@ -1115,7 +1115,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1123,7 +1123,7 @@
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="19.125" customWidth="1"/>
     <col min="3" max="3" width="19.5666666666667" customWidth="1"/>
-    <col min="4" max="4" width="15.975" customWidth="1"/>
+    <col min="4" max="4" width="34.0166666666667" customWidth="1"/>
     <col min="5" max="5" width="7.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="37.275" customWidth="1"/>

--- a/excel/Model.xlsx
+++ b/excel/Model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30435" windowHeight="15915"/>
+    <workbookView windowWidth="22365" windowHeight="15915"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1115,7 +1115,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>

--- a/excel/Model.xlsx
+++ b/excel/Model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22365" windowHeight="15915"/>
+    <workbookView windowHeight="15140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -92,6 +92,9 @@
     <t>array</t>
   </si>
   <si>
+    <t>array2d</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -104,6 +107,9 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>int[][]</t>
+  </si>
+  <si>
     <t>模型id</t>
   </si>
   <si>
@@ -128,6 +134,9 @@
     <t>测试数组</t>
   </si>
   <si>
+    <t>测试2D数组</t>
+  </si>
+  <si>
     <t>蕨类植物</t>
   </si>
   <si>
@@ -138,6 +147,12 @@
   </si>
   <si>
     <t>[1,2,3]</t>
+  </si>
+  <si>
+    <t>[
+[1,2,3],
+[4,5,6]
+]</t>
   </si>
   <si>
     <t>四叶草</t>
@@ -157,10 +172,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -172,59 +187,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,6 +231,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -255,64 +264,75 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -320,11 +340,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -335,187 +350,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,17 +544,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,39 +582,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,15 +603,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -626,157 +611,187 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -788,58 +803,61 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1108,28 +1126,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="3" width="19.5666666666667" customWidth="1"/>
-    <col min="4" max="4" width="34.0166666666667" customWidth="1"/>
+    <col min="3" max="3" width="19.5673076923077" customWidth="1"/>
+    <col min="4" max="4" width="34.0192307692308" customWidth="1"/>
     <col min="5" max="5" width="7.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.275" customWidth="1"/>
+    <col min="7" max="7" width="37.2788461538462" customWidth="1"/>
+    <col min="8" max="8" width="34.9807692307692" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1154,68 +1173,77 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" ht="68" spans="1:9">
       <c r="A4" s="2">
         <v>10200000001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
@@ -1225,10 +1253,13 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1236,10 +1267,10 @@
         <v>10200000002</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1">
@@ -1249,10 +1280,10 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1260,10 +1291,10 @@
         <v>10200000003</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>

--- a/excel/Model.xlsx
+++ b/excel/Model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15140"/>
+    <workbookView windowWidth="29400" windowHeight="12400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -95,13 +95,16 @@
     <t>array2d</t>
   </si>
   <si>
+    <t>array_struct</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>{x:int,y:{x:int,y:int}}</t>
+    <t>{x:int,y:{x:int,y:int},array:int[]}</t>
   </si>
   <si>
     <t>int[]</t>
@@ -110,6 +113,9 @@
     <t>int[][]</t>
   </si>
   <si>
+    <t>{x:int,y:int}[]</t>
+  </si>
+  <si>
     <t>模型id</t>
   </si>
   <si>
@@ -137,13 +143,16 @@
     <t>测试2D数组</t>
   </si>
   <si>
+    <t>结构数组</t>
+  </si>
+  <si>
     <t>蕨类植物</t>
   </si>
   <si>
     <t>Building</t>
   </si>
   <si>
-    <t>{x:1,y:{x:2,y:3}}</t>
+    <t>{x:1,y:{x:2,y:3},array:[1,2,3,4]}</t>
   </si>
   <si>
     <t>[1,2,3]</t>
@@ -155,13 +164,19 @@
 ]</t>
   </si>
   <si>
+    <t>[{x:1,y:2},{x:3,y:4}]</t>
+  </si>
+  <si>
     <t>四叶草</t>
   </si>
   <si>
-    <t>{x:4,y:{x:5,y:6}}</t>
+    <t>{x:4,y:{x:5,y:6},array:[5,6,7,8]}</t>
   </si>
   <si>
     <t>[]</t>
+  </si>
+  <si>
+    <t>[{x:5,y:6},{x:7,y:8}]</t>
   </si>
   <si>
     <t>五叶草</t>
@@ -173,9 +188,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -193,16 +208,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,8 +238,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,6 +298,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -239,92 +322,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,67 +371,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,109 +545,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,39 +564,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,10 +585,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -628,6 +608,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -641,150 +645,161 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1126,14 +1141,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5"/>
@@ -1145,10 +1160,11 @@
     <col min="5" max="5" width="7.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="37.2788461538462" customWidth="1"/>
-    <col min="8" max="8" width="34.9807692307692" customWidth="1"/>
+    <col min="8" max="9" width="13.9326923076923" customWidth="1"/>
+    <col min="10" max="10" width="25.9230769230769" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1176,74 +1192,83 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" ht="68" spans="1:9">
+    <row r="4" ht="68" spans="1:10">
       <c r="A4" s="2">
         <v>10200000001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
@@ -1253,24 +1278,27 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>10200000002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1">
@@ -1280,10 +1308,13 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1291,10 +1322,10 @@
         <v>10200000003</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
